--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/个人资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/个人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>89.13838</v>
-      </c>
-      <c r="C2" t="n">
-        <v>125.04018</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.28198</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.26118</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.87495</v>
-      </c>
-      <c r="G2" t="n">
-        <v>174.45176</v>
-      </c>
-      <c r="H2" t="n">
-        <v>43.53472</v>
-      </c>
-      <c r="I2" t="n">
-        <v>103.72839</v>
-      </c>
-      <c r="J2" t="n">
-        <v>22.4998</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66.71406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17.60062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14.7699</v>
-      </c>
-      <c r="N2" t="n">
-        <v>130.68326</v>
-      </c>
-      <c r="O2" t="n">
-        <v>49.3547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.75371</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>77.925</v>
-      </c>
-      <c r="R2" t="n">
-        <v>22.33707</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.08023</v>
-      </c>
-      <c r="T2" t="n">
-        <v>27.94894</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.34226</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.88951</v>
-      </c>
-      <c r="W2" t="n">
-        <v>13.07979</v>
-      </c>
-      <c r="X2" t="n">
-        <v>46.89571</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>105.79236</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>181.44785</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>35.04254</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>27.9826</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.35971</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>180.24802</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4.60486</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2268.90778</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>60.75416</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>92.65603</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>179.4334</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12.14044</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>40.33905</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>101.42734</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>63.14058</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>82.13503</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.84231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>118.7278</v>
-      </c>
-      <c r="C3" t="n">
-        <v>144.11111</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.42718</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.16925</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45.61484</v>
-      </c>
-      <c r="G3" t="n">
-        <v>248.89179</v>
-      </c>
-      <c r="H3" t="n">
-        <v>45.63191</v>
-      </c>
-      <c r="I3" t="n">
-        <v>136.16869</v>
-      </c>
-      <c r="J3" t="n">
-        <v>35.63283</v>
-      </c>
-      <c r="K3" t="n">
-        <v>94.31258</v>
-      </c>
-      <c r="L3" t="n">
-        <v>24.3459</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22.66702</v>
-      </c>
-      <c r="N3" t="n">
-        <v>179.79336</v>
-      </c>
-      <c r="O3" t="n">
-        <v>80.17155</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.75222</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>106.75805</v>
-      </c>
-      <c r="R3" t="n">
-        <v>37.14045</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.17858</v>
-      </c>
-      <c r="T3" t="n">
-        <v>28.35303</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.52268</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.67537</v>
-      </c>
-      <c r="W3" t="n">
-        <v>19.16227</v>
-      </c>
-      <c r="X3" t="n">
-        <v>56.83097</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>118.44752</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>223.41065</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55.82656</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>43.21407</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.59465</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>247.46224</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>4.13326</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3029.2608</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>83.73553</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>127.12431</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>241.1807</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.47025</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>59.43293</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>119.20582</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>71.06826</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>129.1346</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.40282</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>160.71159</v>
-      </c>
-      <c r="C4" t="n">
-        <v>170.07089</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.65323</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.26498</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54.04934</v>
-      </c>
-      <c r="G4" t="n">
-        <v>305.9486</v>
-      </c>
-      <c r="H4" t="n">
-        <v>57.23525</v>
-      </c>
-      <c r="I4" t="n">
-        <v>168.93593</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48.69654</v>
-      </c>
-      <c r="K4" t="n">
-        <v>133.84222</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29.31325</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27.85414</v>
-      </c>
-      <c r="N4" t="n">
-        <v>235.18129</v>
-      </c>
-      <c r="O4" t="n">
-        <v>113.94904</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17.98548</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>122.85921</v>
-      </c>
-      <c r="R4" t="n">
-        <v>49.61966</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.07818</v>
-      </c>
-      <c r="T4" t="n">
-        <v>38.25124</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.56455</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.18034</v>
-      </c>
-      <c r="W4" t="n">
-        <v>33.17703</v>
-      </c>
-      <c r="X4" t="n">
-        <v>74.00064999999999</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>155.53318</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>285.49266</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>75.88590000000001</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51.78679</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.55854</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>343.69444</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5.11237</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3981.37003</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>109.59667</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>173.12564</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>329.33628</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.27498</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>91.30274</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>168.37822</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>88.95099999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>165.40449</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11.85932</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
